--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1377473.7492468</v>
+        <v>-1383910.273822387</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13459970.62830169</v>
+        <v>13459380.64891127</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>117.8765344809329</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>343.2458345860326</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.2483168457456</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,7 +747,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>23.83256035713275</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>135.8843655675949</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>69.94285174636506</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>47.91423770415788</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -914,7 +914,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>169.5360752822171</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>57.34414188559372</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.295474296812</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>10.5408675738283</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>25.52025186046571</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -1133,13 +1133,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>285.6753384350783</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>109.9532835201523</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="W10" t="n">
-        <v>9.169434224457152</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>59.25671390701484</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.30983121141272</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>4.867703352827045</v>
       </c>
       <c r="C13" t="n">
-        <v>88.76121644431109</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6222900934534</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>59.41846065756212</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>43.59337250965277</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>125.2592749930907</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954281</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838898</v>
+        <v>24.17382596574967</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828911</v>
+        <v>52.06849973564979</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431743</v>
+        <v>70.57601873167812</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459984</v>
+        <v>55.72314698196053</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643956</v>
+        <v>41.29686219380025</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931867</v>
+        <v>41.22330424667936</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908594</v>
+        <v>42.97275566644663</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147808</v>
+        <v>53.79159358883877</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805012</v>
+        <v>41.14384575541081</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922205</v>
+        <v>18.98356133658274</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367797</v>
+        <v>9.882059701038656</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920528</v>
+        <v>88.00800320656597</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658103</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>999.5681885840261</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="C2" t="n">
-        <v>606.3926870869566</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="D2" t="n">
-        <v>606.3926870869566</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="E2" t="n">
-        <v>203.8091622035011</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>778.7490527018447</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K2" t="n">
-        <v>320.4858080663444</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>320.4858080663444</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="M2" t="n">
-        <v>858.7445930764374</v>
+        <v>914.0882813934878</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713899</v>
+        <v>1427.690960003175</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606228</v>
+        <v>1867.730560895504</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964322</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523739</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="U2" t="n">
-        <v>1746.775898523739</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="V2" t="n">
-        <v>1746.775898523739</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="W2" t="n">
-        <v>1400.062934295423</v>
+        <v>1704.163302785207</v>
       </c>
       <c r="X2" t="n">
-        <v>1400.062934295423</v>
+        <v>1314.710697718264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1400.062934295423</v>
+        <v>1314.710697718264</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>692.2074120948781</v>
+        <v>691.1234630814458</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>540.469232641538</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>410.3802652630184</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>273.9337743739061</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>273.9337743739061</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>153.8739564457705</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>65.57654004637148</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>638.184314874379</v>
       </c>
       <c r="M3" t="n">
-        <v>1252.641318430371</v>
+        <v>642.3356118811472</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430371</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021352</v>
+        <v>1669.540969100522</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1874.261482913892</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1664.198339592534</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1441.658337963601</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1211.541092096888</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675987</v>
+        <v>1022.2340144469</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.609752343106</v>
+        <v>842.9197975224072</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1428.814498234703</v>
+        <v>522.0231987748235</v>
       </c>
       <c r="C4" t="n">
-        <v>1428.814498234703</v>
+        <v>522.0231987748235</v>
       </c>
       <c r="D4" t="n">
-        <v>1428.814498234703</v>
+        <v>522.0231987748235</v>
       </c>
       <c r="E4" t="n">
-        <v>1428.814498234703</v>
+        <v>366.464386634026</v>
       </c>
       <c r="F4" t="n">
-        <v>1428.814498234703</v>
+        <v>209.138451846999</v>
       </c>
       <c r="G4" t="n">
-        <v>1428.814498234703</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196197</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196197</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196197</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306139</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179939</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518203</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549412</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.48460759112</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367699</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.78296973775</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>2050.881980370327</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>2050.881980370327</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>2050.881980370327</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U4" t="n">
-        <v>1765.443188612228</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="V4" t="n">
-        <v>1499.463843433052</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="W4" t="n">
-        <v>1428.814498234703</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="X4" t="n">
-        <v>1428.814498234703</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="Y4" t="n">
-        <v>1428.814498234703</v>
+        <v>707.2312174661248</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1179.036628553212</v>
+        <v>1380.921948825643</v>
       </c>
       <c r="C5" t="n">
-        <v>1179.036628553212</v>
+        <v>1380.921948825643</v>
       </c>
       <c r="D5" t="n">
-        <v>793.5954997698793</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5954997698793</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>376.7010612998571</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475499</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123377</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760839</v>
+        <v>1726.974845685398</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653167</v>
+        <v>1726.974845685398</v>
       </c>
       <c r="P5" t="n">
-        <v>2042.925620653167</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964322</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523739</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="U5" t="n">
-        <v>1575.52733763261</v>
+        <v>1781.41669453704</v>
       </c>
       <c r="V5" t="n">
-        <v>1575.52733763261</v>
+        <v>1781.41669453704</v>
       </c>
       <c r="W5" t="n">
-        <v>1575.52733763261</v>
+        <v>1781.41669453704</v>
       </c>
       <c r="X5" t="n">
-        <v>1575.52733763261</v>
+        <v>1781.41669453704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1179.036628553212</v>
+        <v>1781.41669453704</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>778.7327876102477</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>628.0785571703399</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>497.9895897918202</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>361.5430989027079</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>237.1112927858397</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.8905007444268</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>128.7329332714596</v>
       </c>
       <c r="M6" t="n">
-        <v>885.6388105817852</v>
+        <v>642.3356118811472</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591878</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182859</v>
+        <v>1669.540969100522</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.78296973775</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1299.15041662569</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1109.843338975702</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>930.529122051209</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>395.6329346883093</v>
+        <v>509.9408456793568</v>
       </c>
       <c r="C7" t="n">
-        <v>395.6329346883093</v>
+        <v>509.9408456793568</v>
       </c>
       <c r="D7" t="n">
-        <v>239.999821590824</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="E7" t="n">
-        <v>239.999821590824</v>
+        <v>354.3077325818715</v>
       </c>
       <c r="F7" t="n">
-        <v>239.999821590824</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="G7" t="n">
-        <v>229.3524806071591</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865304</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865304</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>793.2712477481791</v>
       </c>
       <c r="W7" t="n">
-        <v>395.6329346883093</v>
+        <v>509.9408456793568</v>
       </c>
       <c r="X7" t="n">
-        <v>395.6329346883093</v>
+        <v>509.9408456793568</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.6329346883093</v>
+        <v>509.9408456793568</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>357.8503039169751</v>
+        <v>1250.489511166612</v>
       </c>
       <c r="C8" t="n">
-        <v>69.28935600275456</v>
+        <v>857.3140096695423</v>
       </c>
       <c r="D8" t="n">
-        <v>69.28935600275456</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="E8" t="n">
         <v>69.28935600275456</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071196</v>
+        <v>1993.09106617449</v>
       </c>
       <c r="V8" t="n">
-        <v>1544.288363774714</v>
+        <v>1650.984256878009</v>
       </c>
       <c r="W8" t="n">
-        <v>1544.288363774714</v>
+        <v>1650.984256878009</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.835758707771</v>
+        <v>1650.984256878009</v>
       </c>
       <c r="Y8" t="n">
-        <v>758.345049628372</v>
+        <v>1650.984256878009</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>140.0776713099957</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.8717822423411</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8717822423411</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>663.3212008849971</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>397.3418557058213</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="W10" t="n">
-        <v>388.0798009336424</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>388.0798009336424</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>388.0798009336424</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.222718167679</v>
+        <v>1653.037022769199</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185756</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527726</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W11" t="n">
-        <v>2376.375563693905</v>
+        <v>2624.086257188356</v>
       </c>
       <c r="X11" t="n">
-        <v>2376.375563693905</v>
+        <v>2306.429927267607</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732882</v>
+        <v>1981.735493334402</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>477.1322260092924</v>
+        <v>426.1976847794382</v>
       </c>
       <c r="C13" t="n">
-        <v>387.4744316210994</v>
+        <v>327.7888419916213</v>
       </c>
       <c r="D13" t="n">
-        <v>303.637593669808</v>
+        <v>327.7888419916213</v>
       </c>
       <c r="E13" t="n">
-        <v>219.8750566752043</v>
+        <v>327.7888419916213</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>242.2591823507882</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245443</v>
+        <v>988.1475398457738</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915626</v>
+        <v>793.964469812792</v>
       </c>
       <c r="W13" t="n">
-        <v>741.8597555915626</v>
+        <v>582.4303428901637</v>
       </c>
       <c r="X13" t="n">
-        <v>741.8597555915626</v>
+        <v>582.4303428901637</v>
       </c>
       <c r="Y13" t="n">
-        <v>590.5439695543998</v>
+        <v>431.1145568530009</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1711.843491816803</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816803</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1056.832157813863</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442403</v>
+        <v>726.0449080766009</v>
       </c>
       <c r="F14" t="n">
-        <v>722.313225118575</v>
+        <v>380.9467447527726</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527726</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654572</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2982.09548612148</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2982.09548612148</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2682.892726235961</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.236396315211</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="Y14" t="n">
-        <v>2040.541962382006</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>401.9661753553335</v>
+        <v>303.7118946264955</v>
       </c>
       <c r="C16" t="n">
-        <v>303.5573325675165</v>
+        <v>303.7118946264955</v>
       </c>
       <c r="D16" t="n">
-        <v>303.5573325675165</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675165</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1400.594217987569</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1236.671441301997</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.68534223645</v>
+        <v>1023.028924690092</v>
       </c>
       <c r="V16" t="n">
-        <v>955.5022722034676</v>
+        <v>828.8458546571097</v>
       </c>
       <c r="W16" t="n">
-        <v>828.9777520084265</v>
+        <v>617.3117277344812</v>
       </c>
       <c r="X16" t="n">
-        <v>666.6937049376035</v>
+        <v>455.0276806636582</v>
       </c>
       <c r="Y16" t="n">
-        <v>515.3779189004407</v>
+        <v>303.7118946264955</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,13 +5595,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M18" t="n">
-        <v>1009.629923393023</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
         <v>1458.313011372373</v>
@@ -5683,16 +5683,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>806.619390679759</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214671</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498046</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5732,37 +5732,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5792,7 +5792,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5832,13 +5832,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N21" t="n">
         <v>1458.313011372373</v>
@@ -5902,34 +5902,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222413</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6069,22 +6069,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.324157721467</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,25 +6227,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6309,19 +6309,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2189872295041</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1133.990636856185</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.815019777314</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388013</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958364</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343939</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755555</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1840.480565683104</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1840.480565683104</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2246.101934399501</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057097</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835482</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766599</v>
+        <v>255.2650543744538</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041217</v>
+        <v>614.2474104019157</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1107.567702120444</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513242</v>
+        <v>1765.220722740008</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150704</v>
+        <v>2293.03200637747</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043032</v>
+        <v>2733.071607269799</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174554</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042573</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281937</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076166</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1215.584829414858</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1871.362800625417</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2387.883083216398</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965135</v>
+        <v>365.6713676929704</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918672</v>
+        <v>309.385360640485</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237464</v>
+        <v>267.6713584245252</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123134</v>
+        <v>226.0316571652531</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546508</v>
+        <v>182.6248332597514</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407224</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431928</v>
+        <v>86.73045008374176</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>337.0682132920768</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805535</v>
+        <v>612.8479737408596</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458877</v>
+        <v>799.1395520791236</v>
       </c>
       <c r="N34" t="n">
-        <v>989.564301104167</v>
+        <v>982.3291861103328</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145875</v>
+        <v>1145.033953152041</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649524</v>
+        <v>1264.910118928619</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250165</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395528</v>
+        <v>835.7257283273661</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000948</v>
+        <v>666.3144371400691</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124425</v>
+        <v>546.1532258045776</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584503</v>
+        <v>436.9602755027463</v>
       </c>
     </row>
     <row r="35">
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7166,7 +7166,7 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,22 +7202,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1084.690231197904</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229859</v>
+        <v>67.69877031229987</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222405</v>
+        <v>149.5338114222417</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960402</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343043</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7442,16 +7442,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7500,7 +7500,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7567,28 +7567,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1084.690231197904</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229981</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446702</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>442.71782091847</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>422.8464321404388</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920141</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>173.1158076252356</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>502.3269473776719</v>
+        <v>96.5803513490778</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083966</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,25 +8216,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>471.9127060583711</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>277.6879399179704</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>178.1711413166366</v>
       </c>
       <c r="M6" t="n">
-        <v>505.810377508985</v>
+        <v>611.1777065035418</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886041</v>
+        <v>604.1626973083966</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>183.2986537257091</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>220.8844470939643</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9170,7 +9170,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9243,16 +9243,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>538.5873532373481</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9480,16 +9480,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>373.1055958271594</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9717,7 +9717,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,16 +9726,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>373.1055958271594</v>
+        <v>223.122899967847</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9957,22 +9957,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>577.0069902189987</v>
       </c>
       <c r="N27" t="n">
-        <v>597.3159339866202</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>238.0573041899393</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,19 +10434,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>438.5811111539143</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10604,7 +10604,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10832,7 +10832,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>199.6102425680207</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11148,10 +11148,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>199.6102425680207</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>236.9540183796486</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>307.1376583824602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>107.4099227568292</v>
       </c>
       <c r="C13" t="n">
-        <v>8.66353791562763</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>59.49459978156207</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>236.7922716291013</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>86.11623807489138</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>84.15951066031154</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1183028.859171747</v>
+        <v>1182728.085364867</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1183028.859171747</v>
+        <v>1182728.085364867</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>90166.0890466784</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90166.08904667839</v>
+      </c>
+      <c r="D2" t="n">
         <v>90166.08904667837</v>
       </c>
-      <c r="C2" t="n">
-        <v>90166.08904667836</v>
-      </c>
-      <c r="D2" t="n">
-        <v>90166.08904667839</v>
-      </c>
       <c r="E2" t="n">
-        <v>79679.5117122004</v>
+        <v>79679.51171220039</v>
       </c>
       <c r="F2" t="n">
-        <v>79679.51171220042</v>
+        <v>79679.51171220039</v>
       </c>
       <c r="G2" t="n">
-        <v>90166.08904667842</v>
+        <v>90166.08904667846</v>
       </c>
       <c r="H2" t="n">
         <v>90166.08904667843</v>
       </c>
       <c r="I2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667842</v>
       </c>
       <c r="J2" t="n">
-        <v>90166.08904667836</v>
+        <v>90166.08904667835</v>
       </c>
       <c r="K2" t="n">
         <v>90166.0890466784</v>
       </c>
       <c r="L2" t="n">
-        <v>90166.08904667858</v>
+        <v>90166.08904667842</v>
       </c>
       <c r="M2" t="n">
-        <v>90166.08904667843</v>
+        <v>90166.08904667845</v>
       </c>
       <c r="N2" t="n">
-        <v>90166.08904667842</v>
+        <v>90166.08904667845</v>
       </c>
       <c r="O2" t="n">
         <v>90166.08904667842</v>
       </c>
       <c r="P2" t="n">
-        <v>90166.0890466784</v>
+        <v>90166.08904667843</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401369</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728548</v>
+        <v>62456.24177539691</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>27767.69404277123</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.547473508864641e-11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>27767.69404277117</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892385</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892385</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589425</v>
+        <v>86988.78851589428</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589425</v>
+        <v>86988.78851589428</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26436,22 +26436,22 @@
         <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="J4" t="n">
+        <v>135498.1974718596</v>
+      </c>
+      <c r="K4" t="n">
         <v>135498.1974718595</v>
       </c>
-      <c r="K4" t="n">
-        <v>135498.1974718596</v>
-      </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="O4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173851</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336798.9651744299</v>
+        <v>-333349.8407807754</v>
       </c>
       <c r="C6" t="n">
-        <v>-154594.0168825739</v>
+        <v>-159491.1837467205</v>
       </c>
       <c r="D6" t="n">
-        <v>-160033.5588583981</v>
+        <v>-167769.84808179</v>
       </c>
       <c r="E6" t="n">
-        <v>-172617.8579775789</v>
+        <v>-172827.5895242686</v>
       </c>
       <c r="F6" t="n">
-        <v>-60495.29650353435</v>
+        <v>-60705.02805022397</v>
       </c>
       <c r="G6" t="n">
-        <v>-150176.7108129997</v>
+        <v>-150176.7108129996</v>
       </c>
       <c r="H6" t="n">
-        <v>-102751.3852763176</v>
+        <v>-102751.3852763177</v>
       </c>
       <c r="I6" t="n">
         <v>-102751.3852763177</v>
       </c>
       <c r="J6" t="n">
-        <v>-315793.3028736033</v>
+        <v>-309277.0177190299</v>
       </c>
       <c r="K6" t="n">
         <v>-108991.1536791007</v>
       </c>
       <c r="L6" t="n">
-        <v>-164173.7426137216</v>
+        <v>-168222.5798241941</v>
       </c>
       <c r="M6" t="n">
-        <v>-144952.2147359406</v>
+        <v>-146003.9097471288</v>
       </c>
       <c r="N6" t="n">
         <v>-102751.3852763177</v>
@@ -26561,7 +26561,7 @@
         <v>-130519.0793190889</v>
       </c>
       <c r="P6" t="n">
-        <v>-102751.3852763176</v>
+        <v>-102751.3852763177</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095207</v>
+        <v>844.4391950293131</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660685</v>
+        <v>78.07030221924613</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551352</v>
+        <v>17.58004954287421</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>34.70961755346404</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.684341886080801e-14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.70961755346396</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506514</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407243</v>
+        <v>117.12687130428</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506514</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>278.61326377335</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27439,10 +27439,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>24.04321009536284</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.03005425080609</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25.06082109107477</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27543,22 +27543,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>30.68714779395401</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>210.5542463017691</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>333.6724797913411</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>83.6591269875303</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>61.51507786326048</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626865</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>156.0306457877206</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27831,7 +27831,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>237.7992998669183</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>103.5684080470204</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>143.2419187495951</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28017,7 +28017,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W10" t="n">
-        <v>271.327663823677</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>128.2979821082772</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>28.01250026485243</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,28 +29299,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="M26" t="n">
-        <v>30.27223765901272</v>
-      </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599572</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29463,7 +29463,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N28" t="n">
         <v>93.99127447431646</v>
@@ -29472,7 +29472,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
         <v>93.99127447431646</v>
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901306</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29542,22 +29542,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000708</v>
+        <v>43.49509683159664</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>86.27291196566728</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.8683420224691</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254302</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30283,7 +30283,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155851</v>
       </c>
       <c r="X38" t="n">
         <v>130.3599693155844</v>
@@ -30402,13 +30402,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668742</v>
+        <v>35.71049010668871</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,10 +30651,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,16 +30876,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668865</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>35.71049010668722</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>279.7880289612014</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>22.81436038431044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>409.93982532836</v>
+        <v>4.193229299765891</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>322.794214720587</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.1892414995782</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>88.11079445971841</v>
       </c>
       <c r="M6" t="n">
-        <v>413.423255459673</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>93.70171839237574</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>135.5123342397976</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>453.2152403831814</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462355</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528405</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>287.7334829729927</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028106</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,16 +36446,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>287.7334829729927</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133855</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,10 +36525,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101042</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>531.134972901782</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="N27" t="n">
-        <v>511.9438211324535</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.383119385102</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,22 +36838,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>638.1665882070868</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.0691510340253</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261598</v>
+        <v>189.6059785576856</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,7 +37075,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167588</v>
+        <v>664.2959804238017</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792979</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273755</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,19 +37154,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>346.1939891046024</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791177</v>
+        <v>82.70543230055108</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>189.529999709279</v>
       </c>
       <c r="L34" t="n">
-        <v>184.499963434563</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>107.2231205187088</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528348</v>
+        <v>5.63600263452964</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>135.5123342397976</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37947,10 +37947,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437669</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>107.2231205187088</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529582</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594792</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
